--- a/Data Penelitian/Pengujian Keempat/Perbandingan 2,4Ghz dan 5Ghz.xlsx
+++ b/Data Penelitian/Pengujian Keempat/Perbandingan 2,4Ghz dan 5Ghz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan Firmansyah\Desktop\TES\Data Penelitian\Pengujian Keempat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CBE91-C26E-456E-8983-1234028B63F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A35F4B-63F0-4AF6-9042-091D5DADBB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FE15642-9D66-4ECE-BDBC-DAC5209934CF}"/>
   </bookViews>
@@ -19917,44 +19917,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63B9C872-F95D-4385-9972-FE5286013279}" name="Table1" displayName="Table1" ref="C40:D70" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63B9C872-F95D-4385-9972-FE5286013279}" name="Table1" displayName="Table1" ref="C40:D70" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="C40:D70" xr:uid="{63B9C872-F95D-4385-9972-FE5286013279}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F7405CBF-C96B-4133-92D4-07C6075A95D2}" name="RSSI 2,4Ghz" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A9E71811-2A10-4F89-8700-D0E99AA768B8}" name="RSSI 5Ghz" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{F7405CBF-C96B-4133-92D4-07C6075A95D2}" name="RSSI 2,4Ghz" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A9E71811-2A10-4F89-8700-D0E99AA768B8}" name="RSSI 5Ghz" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E576C929-33A6-4E8A-A35D-924DB26AF25B}" name="Table2" displayName="Table2" ref="L40:M70" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E576C929-33A6-4E8A-A35D-924DB26AF25B}" name="Table2" displayName="Table2" ref="L40:M70" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="L40:M70" xr:uid="{E576C929-33A6-4E8A-A35D-924DB26AF25B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{18EE5988-FD59-43BC-9A09-E5FF09CCDDA7}" name="RSSI 2,4Ghz" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{59AC8C19-DA31-4982-BE51-295890EF9173}" name="RSSI 5Ghz" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{18EE5988-FD59-43BC-9A09-E5FF09CCDDA7}" name="RSSI 2,4Ghz" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{59AC8C19-DA31-4982-BE51-295890EF9173}" name="RSSI 5Ghz" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1EF03CE-88FE-4F81-8B8B-104FCC421F38}" name="Table3" displayName="Table3" ref="U40:V70" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1EF03CE-88FE-4F81-8B8B-104FCC421F38}" name="Table3" displayName="Table3" ref="U40:V70" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="U40:V70" xr:uid="{B1EF03CE-88FE-4F81-8B8B-104FCC421F38}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{421130ED-4D65-4796-948F-83DC309751DF}" name="RSSI 2,4Ghz" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{928CFEDD-38DD-4AAF-ACD1-34B0A55DC269}" name="RSSI 5Ghz" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{421130ED-4D65-4796-948F-83DC309751DF}" name="RSSI 2,4Ghz" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{928CFEDD-38DD-4AAF-ACD1-34B0A55DC269}" name="RSSI 5Ghz" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B975AD98-240D-47E7-8537-4D5EA2C1ED4D}" name="Table4" displayName="Table4" ref="AD40:AE70" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B975AD98-240D-47E7-8537-4D5EA2C1ED4D}" name="Table4" displayName="Table4" ref="AD40:AE70" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="AD40:AE70" xr:uid="{B975AD98-240D-47E7-8537-4D5EA2C1ED4D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8AA88FD1-CA14-4687-B288-6D57C8ABE2BF}" name="RSSI 2,4Ghz" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9B075923-8BBE-4541-BFA1-9EEB09182323}" name="RSSI 5Ghz" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8AA88FD1-CA14-4687-B288-6D57C8ABE2BF}" name="RSSI 2,4Ghz" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9B075923-8BBE-4541-BFA1-9EEB09182323}" name="RSSI 5Ghz" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20270,8 +20270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863966AB-7625-4430-9018-AD015DEEAC01}">
   <dimension ref="B2:AE212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN32" sqref="AN32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
